--- a/Loci Data.xlsx
+++ b/Loci Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Computational Biology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Computational Biology\Dog DNA Inheritance\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA46EE-82B7-43D2-8580-C08CEA5424A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97CDFD8-BE92-4B09-B986-9635324904B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{13D50C51-2907-4DB6-9DA4-720ADA187DDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{13D50C51-2907-4DB6-9DA4-720ADA187DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="400">
   <si>
     <t>Golden Retriever</t>
   </si>
@@ -1464,12 +1464,249 @@
   <si>
     <t>Dictionary</t>
   </si>
+  <si>
+    <t>Normal expression.</t>
+  </si>
+  <si>
+    <t>KB (dominant black), ky (allows agouti)</t>
+  </si>
+  <si>
+    <t>ky/ky</t>
+  </si>
+  <si>
+    <t>Allows A-locus pattern to show.</t>
+  </si>
+  <si>
+    <t>ay (sable), at (tan-point)</t>
+  </si>
+  <si>
+    <t>at/at</t>
+  </si>
+  <si>
+    <t>B (black), b (brown)</t>
+  </si>
+  <si>
+    <t>Black pigment.</t>
+  </si>
+  <si>
+    <t>No dilution.</t>
+  </si>
+  <si>
+    <t>S (solid), sp (piebald)</t>
+  </si>
+  <si>
+    <t>Solid coat.</t>
+  </si>
+  <si>
+    <t>L (short), l (long)</t>
+  </si>
+  <si>
+    <t>Short (Smooth) coat.</t>
+  </si>
+  <si>
+    <t>Dachhund</t>
+  </si>
+  <si>
+    <t>French Bulldog</t>
+  </si>
+  <si>
+    <t>KB (black), ky (allows agouti)</t>
+  </si>
+  <si>
+    <t>Allows pattern.</t>
+  </si>
+  <si>
+    <t>Black saddle/patches.</t>
+  </si>
+  <si>
+    <t>Short coat.</t>
+  </si>
+  <si>
+    <t>Beagle</t>
+  </si>
+  <si>
+    <t>Black base (modified by D locus).</t>
+  </si>
+  <si>
+    <t>Doberman</t>
+  </si>
+  <si>
+    <t>Em (mask), E (normal)</t>
+  </si>
+  <si>
+    <t>Em/Em</t>
+  </si>
+  <si>
+    <t>Black Mask.</t>
+  </si>
+  <si>
+    <t>KB, kbr (brindle), ky</t>
+  </si>
+  <si>
+    <t>kbr/kbr</t>
+  </si>
+  <si>
+    <t>ay (fawn), at (tan-point)</t>
+  </si>
+  <si>
+    <t>ay/ay</t>
+  </si>
+  <si>
+    <t>Fawn base (visible between stripes).</t>
+  </si>
+  <si>
+    <t>Black stripes/mask.</t>
+  </si>
+  <si>
+    <t>S (solid), sw (extreme white)</t>
+  </si>
+  <si>
+    <t>Boxer</t>
+  </si>
+  <si>
+    <t>Allows pigment.</t>
+  </si>
+  <si>
+    <t>KB (dominant black), ky</t>
+  </si>
+  <si>
+    <t>KB/KB</t>
+  </si>
+  <si>
+    <t>Dominant Solid.</t>
+  </si>
+  <si>
+    <t>ay, at, a</t>
+  </si>
+  <si>
+    <t>Masked by KB (not visible).</t>
+  </si>
+  <si>
+    <t>Chocolate labrador</t>
+  </si>
+  <si>
+    <t>aw (wolf sable), at (tan point)</t>
+  </si>
+  <si>
+    <t>aw/aw</t>
+  </si>
+  <si>
+    <t>Short/Wire (Wire coat gene often separate).</t>
+  </si>
+  <si>
+    <t>Miniature Schauzer</t>
+  </si>
+  <si>
+    <t>Black Mask (on gold parts).</t>
+  </si>
+  <si>
+    <t>KB, ky</t>
+  </si>
+  <si>
+    <t>Allows Fawn/Gold.</t>
+  </si>
+  <si>
+    <t>ay (sable/gold), at (tan point)</t>
+  </si>
+  <si>
+    <t>Black nose/rims.</t>
+  </si>
+  <si>
+    <t>Long coat.</t>
+  </si>
+  <si>
+    <t>Shih tzu</t>
+  </si>
+  <si>
+    <t>E (normal), Em (mask)</t>
+  </si>
+  <si>
+    <t>Mask (invisible on black).</t>
+  </si>
+  <si>
+    <t>Dominant Black.</t>
+  </si>
+  <si>
+    <t>ay, at</t>
+  </si>
+  <si>
+    <t>Fawn hidden under the black KB.</t>
+  </si>
+  <si>
+    <t>Great Dane</t>
+  </si>
+  <si>
+    <t>E (normal)</t>
+  </si>
+  <si>
+    <t>Solid color.</t>
+  </si>
+  <si>
+    <t>Masked by KB.</t>
+  </si>
+  <si>
+    <t>Brown base (Liver).</t>
+  </si>
+  <si>
+    <t>Weimarnarer</t>
+  </si>
+  <si>
+    <t>at (tan point)</t>
+  </si>
+  <si>
+    <t>Hidden (Carriers for "Tri" common).</t>
+  </si>
+  <si>
+    <t>S (solid), si (Irish)</t>
+  </si>
+  <si>
+    <t>Border Collie</t>
+  </si>
+  <si>
+    <t>Tan Points. Black body with rust markings.</t>
+  </si>
+  <si>
+    <t>Tan Point (The base of the "Tri" pattern).</t>
+  </si>
+  <si>
+    <t>Tan Point pattern.</t>
+  </si>
+  <si>
+    <t>Dilute. Turns Black to Blue/Grey.</t>
+  </si>
+  <si>
+    <t>Piebald. White patches break the Black &amp; Tan.</t>
+  </si>
+  <si>
+    <t>Brindle. Black stripes over the body.</t>
+  </si>
+  <si>
+    <t>Brown Pigment. Turns black fur Chocolate.</t>
+  </si>
+  <si>
+    <t>Flashy. White chest/paws.</t>
+  </si>
+  <si>
+    <t>Wolf Sable. Banded hairs (Salt &amp; Pepper).</t>
+  </si>
+  <si>
+    <t>Gold/Sable base color.</t>
+  </si>
+  <si>
+    <t>Piebald. White patches over the Gold.</t>
+  </si>
+  <si>
+    <t>Dilute. Turns Liver into Silver/Grey.</t>
+  </si>
+  <si>
+    <t>Irish Spotting. White collar, blaze, socks.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1514,6 +1751,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1523,7 +1773,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1645,11 +1895,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1675,15 +1940,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1704,6 +1960,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2368,10 +2639,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA20C3AC-AE4D-4405-93BB-A06972DE5978}">
-  <dimension ref="A3:K31"/>
+  <dimension ref="A3:K88"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3199,6 +3470,1428 @@
         <v>108</v>
       </c>
     </row>
+    <row r="33" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="J60" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="63" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="72" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="J73" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="K76" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="K77" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K79" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="81" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3209,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FF745E-1070-4EB7-A4AA-5A12AFD9AAA2}">
   <dimension ref="B6:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3226,21 +4919,21 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="J6" s="20" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="J6" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -3252,11 +4945,11 @@
       <c r="D7" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
       <c r="J7" s="7" t="s">
         <v>1</v>
       </c>
@@ -3268,7 +4961,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="18" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3277,9 +4970,9 @@
       <c r="D8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
       <c r="J8" s="10" t="s">
         <v>156</v>
       </c>
@@ -3291,7 +4984,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1" t="s">
         <v>159</v>
       </c>
@@ -3318,7 +5011,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="1" t="s">
         <v>161</v>
       </c>
@@ -3345,7 +5038,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="18" t="s">
         <v>163</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3374,7 +5067,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1" t="s">
         <v>166</v>
       </c>
@@ -3401,7 +5094,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1" t="s">
         <v>168</v>
       </c>
@@ -3428,7 +5121,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3457,18 +5150,18 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
       <c r="J15" s="10" t="s">
         <v>201</v>
       </c>
@@ -3480,19 +5173,19 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="1" t="s">
         <v>177</v>
       </c>
@@ -3510,7 +5203,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="18" t="s">
         <v>179</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3530,7 +5223,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="1" t="s">
         <v>182</v>
       </c>
@@ -3548,7 +5241,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="18" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3568,7 +5261,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="1" t="s">
         <v>187</v>
       </c>
@@ -3586,7 +5279,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="18" t="s">
         <v>189</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3606,33 +5299,33 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="18" t="s">
         <v>196</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3652,7 +5345,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="1" t="s">
         <v>199</v>
       </c>
@@ -3670,7 +5363,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3690,7 +5383,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="1" t="s">
         <v>204</v>
       </c>
@@ -3708,7 +5401,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="1" t="s">
         <v>206</v>
       </c>
@@ -3726,7 +5419,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="1" t="s">
         <v>208</v>
       </c>
@@ -3744,16 +5437,16 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" s="7" t="s">
@@ -3800,16 +5493,16 @@
       </c>
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F39" s="7" t="s">
@@ -3856,16 +5549,16 @@
       </c>
     </row>
     <row r="43" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F45" s="7" t="s">
@@ -3878,7 +5571,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F46" s="1" t="s">
         <v>125</v>
       </c>
@@ -3889,7 +5582,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="6:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F47" s="1" t="s">
         <v>275</v>
       </c>
@@ -3912,16 +5605,16 @@
       </c>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F51" s="7" t="s">
@@ -3957,16 +5650,16 @@
       </c>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="6:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F56" s="7" t="s">
@@ -4012,7 +5705,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="6:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F60" s="1" t="s">
         <v>68</v>
       </c>
